--- a/WebAPI/wwwroot/Plantillas/ResumenReglasValidacionResultado.xlsx
+++ b/WebAPI/wwwroot/Plantillas/ResumenReglasValidacionResultado.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nrojast\Documents\Plantillas_cu6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nayeli Rojas\Documents\SICA_INFOTEC\WebAPI\wwwroot\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="4296"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="4290"/>
   </bookViews>
   <sheets>
     <sheet name="ResumenValidacionReglas_Resulta" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Clave Unica</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Costo de Parámetro</t>
+  </si>
+  <si>
+    <t>Número entrega</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -191,6 +194,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -473,104 +479,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="27" max="27" width="12.5546875" customWidth="1"/>
-    <col min="28" max="28" width="13.21875" customWidth="1"/>
+    <col min="28" max="28" width="12.5703125" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>28</v>
       </c>
     </row>

--- a/WebAPI/wwwroot/Plantillas/ResumenReglasValidacionResultado.xlsx
+++ b/WebAPI/wwwroot/Plantillas/ResumenReglasValidacionResultado.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="4290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="4296"/>
   </bookViews>
   <sheets>
     <sheet name="ResumenValidacionReglas_Resulta" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Clave Unica</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Número entrega</t>
+  </si>
+  <si>
+    <t>Validación final</t>
+  </si>
+  <si>
+    <t>Observaciones final</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +166,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -173,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -197,6 +209,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -479,17 +494,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="28" max="28" width="12.5703125" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" customWidth="1"/>
+    <col min="28" max="28" width="12.5546875" customWidth="1"/>
+    <col min="29" max="29" width="14.88671875" customWidth="1"/>
+    <col min="32" max="32" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>29</v>
       </c>
@@ -579,6 +597,12 @@
       </c>
       <c r="AD1" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
